--- a/data/trans_dic/P02E$ssociales-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P02E$ssociales-Habitat-trans_dic.xlsx
@@ -678,28 +678,28 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0094692771536593</v>
+        <v>0.009559470643156237</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.006713835143343934</v>
+        <v>0.006885055023966943</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.006577025612825521</v>
+        <v>0.006503882820198758</v>
       </c>
       <c r="H5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.00275196868924342</v>
+        <v>0.002738113831009307</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01000666124048616</v>
+        <v>0.009772301663339989</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.00612701407089692</v>
+        <v>0.005831578393629864</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03721131100521703</v>
+        <v>0.04092102793876308</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05525772277512854</v>
+        <v>0.05207980265272314</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06157976333210202</v>
+        <v>0.06585464401371034</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02853968891198026</v>
+        <v>0.03312668321036183</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03683132992814174</v>
+        <v>0.03587255776900472</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03315895875736834</v>
+        <v>0.02903320742959019</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02337342656507761</v>
+        <v>0.02323897596756315</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03616908414289284</v>
+        <v>0.03625338753584428</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03348440198482905</v>
+        <v>0.03436099790719779</v>
       </c>
     </row>
     <row r="7">
@@ -785,24 +785,24 @@
       </c>
       <c r="C8" s="5" t="inlineStr"/>
       <c r="D8" s="5" t="n">
-        <v>0.003687529812616311</v>
+        <v>0.003722761649857813</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="inlineStr"/>
       <c r="G8" s="5" t="n">
-        <v>0.008971247635143663</v>
+        <v>0.007093689703757696</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.00266537728091442</v>
+        <v>0.002664955364475333</v>
       </c>
       <c r="I8" s="5" t="inlineStr"/>
       <c r="J8" s="5" t="n">
-        <v>0.008419507572882642</v>
+        <v>0.008549390250580354</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.003281057153758953</v>
+        <v>0.003329317891369325</v>
       </c>
     </row>
     <row r="9">
@@ -814,24 +814,24 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.03628586116460197</v>
+        <v>0.03671753741193836</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03302331646593164</v>
+        <v>0.02848249285733351</v>
       </c>
       <c r="F9" s="5" t="inlineStr"/>
       <c r="G9" s="5" t="n">
-        <v>0.03488966924077228</v>
+        <v>0.03444267442926083</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02516580524754701</v>
+        <v>0.02644222832445321</v>
       </c>
       <c r="I9" s="5" t="inlineStr"/>
       <c r="J9" s="5" t="n">
-        <v>0.02913741023705983</v>
+        <v>0.02822900364425139</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01976918214320942</v>
+        <v>0.02065416416324163</v>
       </c>
     </row>
     <row r="10">
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.006190943268919324</v>
+        <v>0.006136042414574656</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.001702613233822097</v>
+        <v>0.001699608058010562</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0</v>
+        <v>0.002448959886531791</v>
       </c>
     </row>
     <row r="12">
@@ -913,26 +913,26 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.03176145644997947</v>
+        <v>0.03245252593305292</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05692846185548624</v>
+        <v>0.05585459925336833</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01970672958995986</v>
+        <v>0.02327721411784403</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.01564306137783699</v>
+        <v>0.02028507481214153</v>
       </c>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>0.01384503173176605</v>
+        <v>0.0140420263443234</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.01479060816775572</v>
+        <v>0.0145679140591566</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02231106786957463</v>
+        <v>0.02343155853304782</v>
       </c>
     </row>
     <row r="13">
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0069182393534039</v>
+        <v>0.007018610796388386</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>0</v>
@@ -994,19 +994,19 @@
         <v>0</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.005079666855149105</v>
+        <v>0.005092206157761368</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.006508304007831631</v>
+        <v>0.006855896599856558</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.001939713232060319</v>
+        <v>0.001928244830324359</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.007452175134264275</v>
+        <v>0.007195737564088047</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.004534176077746543</v>
+        <v>0.004388192556531645</v>
       </c>
     </row>
     <row r="15">
@@ -1017,31 +1017,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02916855000021199</v>
+        <v>0.03200421914328371</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03898548640891111</v>
+        <v>0.04041840362744717</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02897546987136784</v>
+        <v>0.02589842271049989</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0235946954709804</v>
+        <v>0.02345669552125818</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02904390129485554</v>
+        <v>0.02659282777365111</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03869230672705957</v>
+        <v>0.03945320273249113</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01667257047353399</v>
+        <v>0.01654732829032956</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02509913453263664</v>
+        <v>0.02617918106681115</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02672036040368914</v>
+        <v>0.02673030495652648</v>
       </c>
     </row>
     <row r="16">
@@ -1094,28 +1094,28 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0100660190429704</v>
+        <v>0.009196313508883336</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.007573964417279927</v>
+        <v>0.006727591635546009</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.001761268741060632</v>
+        <v>0.001899991984689383</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.008026581859252769</v>
+        <v>0.007915360548296838</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.004694900021760999</v>
+        <v>0.004633331194513062</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.001755438458592013</v>
+        <v>0.001767889432909527</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.010243524298442</v>
+        <v>0.01010954617822022</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.006802257505784819</v>
+        <v>0.006960423582459529</v>
       </c>
     </row>
     <row r="18">
@@ -1126,31 +1126,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01039314820472961</v>
+        <v>0.01053968890093346</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02631763733475535</v>
+        <v>0.02537517110093993</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02604876820563551</v>
+        <v>0.02361525492487175</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.009851092737194212</v>
+        <v>0.01060847905840618</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.02013321940018996</v>
+        <v>0.01975548935035923</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.01688407625455432</v>
+        <v>0.0161882239487185</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.007870836259469298</v>
+        <v>0.008140777059497591</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.01928663693789436</v>
+        <v>0.01915232417262015</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01722464321052957</v>
+        <v>0.01689773542554711</v>
       </c>
     </row>
     <row r="19">
@@ -1382,28 +1382,28 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1882</v>
+        <v>1900</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1077</v>
+        <v>1104</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1963</v>
+        <v>1941</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>4975</v>
+        <v>4858</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>2189</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="7">
@@ -1414,31 +1414,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4883</v>
+        <v>5370</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>10984</v>
+        <v>10352</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9877</v>
+        <v>10562</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>6278</v>
+        <v>7287</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>10990</v>
+        <v>10704</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>6526</v>
+        <v>5714</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>8209</v>
+        <v>8162</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>17982</v>
+        <v>18024</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>11961</v>
+        <v>12274</v>
       </c>
     </row>
     <row r="8">
@@ -1524,24 +1524,24 @@
       </c>
       <c r="C10" s="6" t="inlineStr"/>
       <c r="D10" s="6" t="n">
-        <v>1120</v>
+        <v>1131</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="6" t="inlineStr"/>
       <c r="G10" s="6" t="n">
-        <v>4108</v>
+        <v>3248</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="I10" s="6" t="inlineStr"/>
       <c r="J10" s="6" t="n">
-        <v>6412</v>
+        <v>6511</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1955</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="11">
@@ -1553,24 +1553,24 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>11019</v>
+        <v>11150</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>7854</v>
+        <v>6774</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="n">
-        <v>15975</v>
+        <v>15770</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>9013</v>
+        <v>9470</v>
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>22189</v>
+        <v>21498</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>11782</v>
+        <v>12309</v>
       </c>
     </row>
     <row r="12">
@@ -1659,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1015</v>
+        <v>1006</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="15">
@@ -1687,26 +1687,26 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>7010</v>
+        <v>7162</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9337</v>
+        <v>9160</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>3894</v>
+        <v>4599</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5547</v>
+        <v>7194</v>
       </c>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>4504</v>
+        <v>4568</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>8509</v>
+        <v>8381</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>9323</v>
+        <v>9791</v>
       </c>
     </row>
     <row r="16">
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1810</v>
+        <v>1836</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>0</v>
@@ -1803,19 +1803,19 @@
         <v>0</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2062</v>
+        <v>2068</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1967</v>
+        <v>2072</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>4976</v>
+        <v>4804</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>2252</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="19">
@@ -1826,31 +1826,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>4970</v>
+        <v>5453</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>10201</v>
+        <v>10576</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>5634</v>
+        <v>5036</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>6658</v>
+        <v>6619</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>11792</v>
+        <v>10797</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>11692</v>
+        <v>11922</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>7545</v>
+        <v>7488</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>16758</v>
+        <v>17479</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>13270</v>
+        <v>13275</v>
       </c>
     </row>
     <row r="20">
@@ -1938,28 +1938,28 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>9913</v>
+        <v>9057</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5731</v>
+        <v>5091</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1772</v>
+        <v>1911</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>12175</v>
+        <v>12007</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>5216</v>
+        <v>5148</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2865</v>
+        <v>2885</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>25626</v>
+        <v>25291</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>12704</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="23">
@@ -1970,31 +1970,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>6508</v>
+        <v>6600</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>25918</v>
+        <v>24990</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>19710</v>
+        <v>17869</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>9908</v>
+        <v>10670</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>30540</v>
+        <v>29967</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>18758</v>
+        <v>17985</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>12845</v>
+        <v>13286</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>48249</v>
+        <v>47913</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>32170</v>
+        <v>31559</v>
       </c>
     </row>
     <row r="24">
